--- a/demo/Results_rt/link/rt/Statistics.xlsx
+++ b/demo/Results_rt/link/rt/Statistics.xlsx
@@ -13,27 +13,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="26" uniqueCount="17">
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>b1</t>
-  </si>
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>b3</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>a2</t>
   </si>
   <si>
     <t>emMean</t>
@@ -121,8 +115,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="true"/>
-    <col min="2" max="2" width="3.140625" customWidth="true"/>
+    <col min="1" max="1" width="2.28515625" customWidth="true"/>
+    <col min="2" max="2" width="2.42578125" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="13.85546875" customWidth="true"/>
     <col min="5" max="5" width="14" customWidth="true"/>
@@ -145,40 +139,40 @@
         <v>4</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -186,16 +180,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>279.86485460797235</v>
+        <v>279.86485460869295</v>
       </c>
       <c r="D2" s="0">
-        <v>239.13353448837796</v>
+        <v>239.1335344830932</v>
       </c>
       <c r="E2" s="0">
-        <v>327.53389026894553</v>
+        <v>327.53389027787057</v>
       </c>
       <c r="F2" s="0">
         <v>86</v>
@@ -230,16 +224,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" s="0">
-        <v>358.81984271457122</v>
+        <v>358.81984271496543</v>
       </c>
       <c r="D3" s="0">
-        <v>306.61280060718678</v>
+        <v>306.61280060660073</v>
       </c>
       <c r="E3" s="0">
-        <v>419.9161915965089</v>
+        <v>419.91619159823421</v>
       </c>
       <c r="F3" s="0">
         <v>89</v>
@@ -274,16 +268,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="0">
-        <v>337.22074971425462</v>
+        <v>337.22074971397132</v>
       </c>
       <c r="D4" s="0">
-        <v>295.03173798654552</v>
+        <v>295.03173798467066</v>
       </c>
       <c r="E4" s="0">
-        <v>385.4427147869423</v>
+        <v>385.44271478874407</v>
       </c>
       <c r="F4" s="0">
         <v>85</v>
@@ -318,16 +312,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" s="0">
-        <v>353.54438447157122</v>
+        <v>353.54438447083015</v>
       </c>
       <c r="D5" s="0">
-        <v>303.8004714485952</v>
+        <v>303.80047144489748</v>
       </c>
       <c r="E5" s="0">
-        <v>411.43330421898906</v>
+        <v>411.43330422227206</v>
       </c>
       <c r="F5" s="0">
         <v>85</v>
@@ -362,16 +356,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" s="0">
-        <v>449.72787047483996</v>
+        <v>449.72787047580346</v>
       </c>
       <c r="D6" s="0">
-        <v>384.75887142745626</v>
+        <v>384.7588714377606</v>
       </c>
       <c r="E6" s="0">
-        <v>525.66730100716688</v>
+        <v>525.66730099534107</v>
       </c>
       <c r="F6" s="0">
         <v>87</v>
@@ -406,16 +400,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" s="0">
-        <v>531.42157836936144</v>
+        <v>531.4215783694209</v>
       </c>
       <c r="D7" s="0">
-        <v>465.09717673982533</v>
+        <v>465.09717674454197</v>
       </c>
       <c r="E7" s="0">
-        <v>607.20405988308653</v>
+        <v>607.20405987706465</v>
       </c>
       <c r="F7" s="0">
         <v>86</v>

--- a/demo/Results_rt/link/rt/Statistics.xlsx
+++ b/demo/Results_rt/link/rt/Statistics.xlsx
@@ -183,40 +183,40 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>279.86485460869295</v>
+        <v>307.18981030783209</v>
       </c>
       <c r="D2" s="0">
-        <v>239.1335344830932</v>
+        <v>258.89379074917952</v>
       </c>
       <c r="E2" s="0">
-        <v>327.53389027787057</v>
+        <v>364.49533719557132</v>
       </c>
       <c r="F2" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G2" s="0">
-        <v>294.0313849052153</v>
+        <v>321.30670273188684</v>
       </c>
       <c r="H2" s="0">
-        <v>195.71076594946837</v>
+        <v>230.2605568909878</v>
       </c>
       <c r="I2" s="0">
-        <v>21.104034638100188</v>
+        <v>24.271593835809995</v>
       </c>
       <c r="J2" s="0">
-        <v>251.8080712916535</v>
+        <v>269.69202395841899</v>
       </c>
       <c r="K2" s="0">
-        <v>128.20550435795499</v>
+        <v>135.11352815559499</v>
       </c>
       <c r="L2" s="0">
-        <v>403.585337919469</v>
+        <v>411.36323703841498</v>
       </c>
       <c r="M2" s="0">
-        <v>252.07091011599289</v>
+        <v>273.07956277706433</v>
       </c>
       <c r="N2" s="0">
-        <v>335.99185969443772</v>
+        <v>369.53384268670936</v>
       </c>
     </row>
     <row r="3">
@@ -227,40 +227,40 @@
         <v>2</v>
       </c>
       <c r="C3" s="0">
-        <v>358.81984271496543</v>
+        <v>372.68161026742007</v>
       </c>
       <c r="D3" s="0">
-        <v>306.61280060660073</v>
+        <v>319.89860542203439</v>
       </c>
       <c r="E3" s="0">
-        <v>419.91619159823421</v>
+        <v>434.17376717938771</v>
       </c>
       <c r="F3" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G3" s="0">
-        <v>370.25442893988037</v>
+        <v>378.66382257554795</v>
       </c>
       <c r="H3" s="0">
-        <v>235.55486313000813</v>
+        <v>247.44143834381498</v>
       </c>
       <c r="I3" s="0">
-        <v>24.968765554299694</v>
+        <v>26.082617755819228</v>
       </c>
       <c r="J3" s="0">
-        <v>335.88022700987602</v>
+        <v>338.26945309657754</v>
       </c>
       <c r="K3" s="0">
-        <v>180.42218501713575</v>
+        <v>183.425462756554</v>
       </c>
       <c r="L3" s="0">
-        <v>555.38254889183554</v>
+        <v>558.56727619768799</v>
       </c>
       <c r="M3" s="0">
-        <v>320.63425421647491</v>
+        <v>326.83821666737072</v>
       </c>
       <c r="N3" s="0">
-        <v>419.87460366328582</v>
+        <v>430.48942848372519</v>
       </c>
     </row>
     <row r="4">
@@ -271,40 +271,40 @@
         <v>1</v>
       </c>
       <c r="C4" s="0">
-        <v>337.22074971397132</v>
+        <v>382.11853340437693</v>
       </c>
       <c r="D4" s="0">
-        <v>295.03173798467066</v>
+        <v>329.90001435210377</v>
       </c>
       <c r="E4" s="0">
-        <v>385.44271478874407</v>
+        <v>442.60250748358544</v>
       </c>
       <c r="F4" s="0">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G4" s="0">
-        <v>338.83172205821541</v>
+        <v>382.31663635731769</v>
       </c>
       <c r="H4" s="0">
-        <v>228.34934777040064</v>
+        <v>286.82702033937073</v>
       </c>
       <c r="I4" s="0">
-        <v>24.767964277212286</v>
+        <v>30.234222625061761</v>
       </c>
       <c r="J4" s="0">
-        <v>282.418180019798</v>
+        <v>298.2746738667185</v>
       </c>
       <c r="K4" s="0">
-        <v>167.62655676672301</v>
+        <v>172.972731633774</v>
       </c>
       <c r="L4" s="0">
-        <v>437.49898894223429</v>
+        <v>501.32010073781998</v>
       </c>
       <c r="M4" s="0">
-        <v>289.57790886524197</v>
+        <v>322.24188000518899</v>
       </c>
       <c r="N4" s="0">
-        <v>388.08553525118884</v>
+        <v>442.39139270944639</v>
       </c>
     </row>
     <row r="5">
@@ -315,40 +315,40 @@
         <v>2</v>
       </c>
       <c r="C5" s="0">
-        <v>353.54438447083015</v>
+        <v>411.09214673670857</v>
       </c>
       <c r="D5" s="0">
-        <v>303.80047144489748</v>
+        <v>348.08821798464055</v>
       </c>
       <c r="E5" s="0">
-        <v>411.43330422227206</v>
+        <v>485.49977958763463</v>
       </c>
       <c r="F5" s="0">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G5" s="0">
-        <v>369.94378566594332</v>
+        <v>435.22762068490727</v>
       </c>
       <c r="H5" s="0">
-        <v>250.90953500613202</v>
+        <v>371.2848152466151</v>
       </c>
       <c r="I5" s="0">
-        <v>27.214960149973194</v>
+        <v>39.13685589380384</v>
       </c>
       <c r="J5" s="0">
-        <v>324.25976818729401</v>
+        <v>339.73423531647154</v>
       </c>
       <c r="K5" s="0">
-        <v>186.01655102431275</v>
+        <v>196.59419738297501</v>
       </c>
       <c r="L5" s="0">
-        <v>548.56006648406776</v>
+        <v>556.15024332354903</v>
       </c>
       <c r="M5" s="0">
-        <v>315.8238528253479</v>
+        <v>357.46352165827216</v>
       </c>
       <c r="N5" s="0">
-        <v>424.06371850653875</v>
+        <v>512.99171971154237</v>
       </c>
     </row>
     <row r="6">
@@ -359,40 +359,40 @@
         <v>1</v>
       </c>
       <c r="C6" s="0">
-        <v>449.72787047580346</v>
+        <v>504.60092544304371</v>
       </c>
       <c r="D6" s="0">
-        <v>384.7588714377606</v>
+        <v>435.15404772633633</v>
       </c>
       <c r="E6" s="0">
-        <v>525.66730099534107</v>
+        <v>585.13093303019264</v>
       </c>
       <c r="F6" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G6" s="0">
-        <v>475.82292632213364</v>
+        <v>508.32609093450469</v>
       </c>
       <c r="H6" s="0">
-        <v>312.52888802172311</v>
+        <v>355.25677837304471</v>
       </c>
       <c r="I6" s="0">
-        <v>33.506613834700715</v>
+        <v>37.447352462415665</v>
       </c>
       <c r="J6" s="0">
-        <v>431.85319939267799</v>
+        <v>433.87664252341904</v>
       </c>
       <c r="K6" s="0">
-        <v>252.57230184720498</v>
+        <v>256.33666210491498</v>
       </c>
       <c r="L6" s="0">
-        <v>666.95763773347198</v>
+        <v>680.55502750315304</v>
       </c>
       <c r="M6" s="0">
-        <v>409.21398254489054</v>
+        <v>433.91899923878071</v>
       </c>
       <c r="N6" s="0">
-        <v>542.43187009937674</v>
+        <v>582.73318263022861</v>
       </c>
     </row>
     <row r="7">
@@ -403,40 +403,40 @@
         <v>2</v>
       </c>
       <c r="C7" s="0">
-        <v>531.4215783694209</v>
+        <v>589.2677085670739</v>
       </c>
       <c r="D7" s="0">
-        <v>465.09717674454197</v>
+        <v>507.55483293132846</v>
       </c>
       <c r="E7" s="0">
-        <v>607.20405987706465</v>
+        <v>684.13580135660072</v>
       </c>
       <c r="F7" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G7" s="0">
-        <v>553.80275206439126</v>
+        <v>617.7824122299628</v>
       </c>
       <c r="H7" s="0">
-        <v>312.15781731044672</v>
+        <v>433.4468756492106</v>
       </c>
       <c r="I7" s="0">
-        <v>33.660843117717832</v>
+        <v>45.689312391175918</v>
       </c>
       <c r="J7" s="0">
-        <v>529.13440357374998</v>
+        <v>538.92190508386398</v>
       </c>
       <c r="K7" s="0">
-        <v>277.32459137539502</v>
+        <v>287.79837666053203</v>
       </c>
       <c r="L7" s="0">
-        <v>769.40639809528705</v>
+        <v>823.75523332093906</v>
       </c>
       <c r="M7" s="0">
-        <v>486.87597795480747</v>
+        <v>526.99872171360767</v>
       </c>
       <c r="N7" s="0">
-        <v>620.72952617397505</v>
+        <v>708.56610274631794</v>
       </c>
     </row>
   </sheetData>
